--- a/data/trans_camb/P9_4-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P9_4-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,45</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 8,35</t>
+          <t>-3,16; 1,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 3,86</t>
+          <t>-0,66; 7,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 4,24</t>
+          <t>-0,6; 4,36</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>67,18%</t>
+          <t>-16,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>307,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>163,76%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-80,35; 1186,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-54,24; 200,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,75; 222,44</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 0,53</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-71,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-37,99%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-89,02; 244,19</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,05</t>
+          <t>-1,1; 1,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 0,86</t>
+          <t>-1,13; 2,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,94</t>
+          <t>-0,7; 1,35</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>36,35%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-11,86%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>16,98%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-64,15; 419,91</t>
+          <t>-74,88; 332,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-66,42; 115,16</t>
+          <t>-56,99; 199,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-45,88; 137,35</t>
+          <t>-44,81; 127,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 0,57</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 1,08</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 0,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-17,04%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>15,08%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-75,83; 146,07</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-52,69; 143,15</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-45,35; 114,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P9_4-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P9_4-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,169 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.1510593578407616</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.698441324695939</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.444206512871625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,16; 1,51</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,66; 7,65</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,6; 4,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.214229600704071</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.4665287182867104</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.6231256493536835</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-16,57%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>307,5%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>163,76%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.486732674661168</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.66980537876754</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.336546503652118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.1717205050079949</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>3.041167942783692</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1.634147203198696</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+      <c r="D13" s="6" t="inlineStr"/>
+      <c r="E13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
+      <c r="E14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +733,179 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 1,75</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 2,11</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,7; 1,35</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr"/>
+      <c r="D17" s="5" t="inlineStr"/>
+      <c r="E17" s="5" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>14,89%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>18,91%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>16,98%</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+      <c r="D18" s="5" t="inlineStr"/>
+      <c r="E18" s="5" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-74,88; 332,0</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-56,99; 199,43</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-44,81; 127,52</t>
-        </is>
-      </c>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr"/>
+      <c r="D19" s="6" t="inlineStr"/>
+      <c r="E19" s="6" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 0,57</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 1,08</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 0,64</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-17,04%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>15,08%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>2,48%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.03044494889409522</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.5254679367912142</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2602404821919659</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-75,83; 146,07</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-52,69; 143,15</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-45,35; 114,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.4900232427303144</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.04371857006122404</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.100957796175701</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.2387356899963141</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.402070127312329</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.7722447990912551</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.2036931231383226</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>3.413709178063257</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>1.71397383446135</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="inlineStr"/>
+      <c r="D26" s="6" t="inlineStr"/>
+      <c r="E26" s="6" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr"/>
+      <c r="D27" s="6" t="inlineStr"/>
+      <c r="E27" s="6" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
